--- a/inputs/model_inputs.xlsx
+++ b/inputs/model_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradenlimb/CloudStation/GitHub/Green-Wastewater-Treatment/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1AB4D-B077-1B42-9C72-6E31E0DDEE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5D732-6493-A742-B38C-75179E4DC4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{ACF55C59-A1CB-0649-A15E-6BC9DAA70822}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="10" xr2:uid="{ACF55C59-A1CB-0649-A15E-6BC9DAA70822}"/>
   </bookViews>
   <sheets>
     <sheet name="Water Treatment Levels" sheetId="3" r:id="rId1"/>
@@ -21,15 +21,11 @@
     <sheet name="Green Water Treatment Test" sheetId="12" r:id="rId6"/>
     <sheet name="Green Emissions - N" sheetId="8" r:id="rId7"/>
     <sheet name="Green Emissions - P" sheetId="9" r:id="rId8"/>
-    <sheet name="Gray Water Treatment Options" sheetId="2" r:id="rId9"/>
-    <sheet name="Gray Water Treatment eGrid" sheetId="6" r:id="rId10"/>
+    <sheet name="Green Treatment Use" sheetId="10" r:id="rId9"/>
+    <sheet name="Gray Water Treatment Options" sheetId="2" r:id="rId10"/>
     <sheet name="Emissions Plot" sheetId="11" r:id="rId11"/>
     <sheet name="Dollar Conversion" sheetId="4" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1492,7 +1488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="308">
   <si>
     <t>Units</t>
   </si>
@@ -1725,9 +1721,6 @@
     <t>2022$/m3</t>
   </si>
   <si>
-    <t>2022Cost</t>
-  </si>
-  <si>
     <t>2014Cost</t>
   </si>
   <si>
@@ -1737,36 +1730,6 @@
     <t>2013 Christianson et al</t>
   </si>
   <si>
-    <t>NPCC</t>
-  </si>
-  <si>
-    <t>lb/MWh</t>
-  </si>
-  <si>
-    <t>US Average</t>
-  </si>
-  <si>
-    <t>1kg</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>kg/kwh</t>
-  </si>
-  <si>
-    <t>kwh/m3</t>
-  </si>
-  <si>
-    <t>kgco2/m3</t>
-  </si>
-  <si>
-    <t>elect</t>
-  </si>
-  <si>
-    <t>non elec</t>
-  </si>
-  <si>
     <t>2016 Illinois Nutrient Loss</t>
   </si>
   <si>
@@ -2278,6 +2241,33 @@
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Iowa - 2017 Census Data</t>
+  </si>
+  <si>
+    <t>Total Farm Land</t>
+  </si>
+  <si>
+    <t>Cover Crops</t>
+  </si>
+  <si>
+    <t>Iowa Report</t>
+  </si>
+  <si>
+    <t>Iowa Report = Iowa Nutrient Reduction Strategy 2018-2019 Annual Progress Report</t>
+  </si>
+  <si>
+    <t>Nutrient Mangement</t>
+  </si>
+  <si>
+    <t>No-Till</t>
+  </si>
+  <si>
+    <t>Saturated Buffers</t>
+  </si>
+  <si>
+    <t>Terraces</t>
   </si>
   <si>
     <t>Treatment</t>
@@ -2428,11 +2418,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2753,7 +2742,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2803,9 +2792,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3952,86 +3939,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Contents"/>
-      <sheetName val="BLR12"/>
-      <sheetName val="GEN12"/>
-      <sheetName val="PLNT12"/>
-      <sheetName val="ST12"/>
-      <sheetName val="PCAL12"/>
-      <sheetName val="SRL12"/>
-      <sheetName val="NRL12"/>
-      <sheetName val="US12"/>
-      <sheetName val="GGL12"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="10">
-          <cell r="W10">
-            <v>604.96203955781107</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Contents"/>
-      <sheetName val="BLR10"/>
-      <sheetName val="GEN10"/>
-      <sheetName val="PLNT10"/>
-      <sheetName val="ST10"/>
-      <sheetName val="PCAL10"/>
-      <sheetName val="SRL10"/>
-      <sheetName val="NRL10"/>
-      <sheetName val="US10"/>
-      <sheetName val="GGL10"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="6">
-          <cell r="U6">
-            <v>1238.5156999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4334,8 +4241,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4418,14 +4325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA0DB1B-846E-EB4D-8F1A-1DA94CB45FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6960C420-AB2B-1846-A606-837F5DD62626}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4433,17 +4340,26 @@
     <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4457,37 +4373,67 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4500,29 +4446,57 @@
         <v>76</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4542,32 +4516,66 @@
         <f>E3*'Dollar Conversion'!$Q$4</f>
         <v>0.79117329007839954</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
+        <f>F3/(M3/1000)</f>
+        <v>81.564256709113366</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3/(N3/1000)</f>
+        <v>13186.22150130666</v>
+      </c>
+      <c r="I3" s="2">
+        <f>K3/(M3/1000)</f>
+        <v>53.608247422680421</v>
+      </c>
+      <c r="J3" s="2">
+        <f>K3/(N3/1000)</f>
+        <v>8666.6666666666679</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.52</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
         <v>0.44</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>0.06</v>
       </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>0.2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T3" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" t="s">
+        <v>238</v>
+      </c>
+      <c r="V3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4587,32 +4595,66 @@
         <f>E4*'Dollar Conversion'!$Q$4</f>
         <v>0.91479411665314947</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G11" si="0">F4/(M4/1000)</f>
+        <v>28.58731614541092</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H11" si="1">F4/(N4/1000)</f>
+        <v>194.63704609641476</v>
+      </c>
+      <c r="I4" s="2">
+        <f>K4/(M4/1000)</f>
+        <v>24.0625</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J10" si="2">K4/(N4/1000)</f>
+        <v>163.82978723404256</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.77</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>4.7</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>0.48</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>0.02</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S4" t="s">
+        <v>238</v>
+      </c>
+      <c r="T4" t="s">
+        <v>238</v>
+      </c>
+      <c r="U4" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" t="s">
+        <v>238</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4632,32 +4674,66 @@
         <f>E5*'Dollar Conversion'!$Q$4</f>
         <v>1.4834499188969992</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
+        <f>F5/(M5/1000)</f>
+        <v>46.357809965531224</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>370.86247972424979</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I11" si="3">K5/(M5/1000)</f>
+        <v>28.75</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.92</v>
       </c>
-      <c r="H5" s="2">
+      <c r="L5" s="2">
         <v>0.72</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="K5" s="2">
+      <c r="O5" s="2">
         <v>0.51</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>0.13</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>0.02</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="R5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>238</v>
+      </c>
+      <c r="U5" t="s">
+        <v>238</v>
+      </c>
+      <c r="V5" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" t="s">
+        <v>238</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4677,32 +4753,66 @@
         <f>E6*'Dollar Conversion'!$Q$4</f>
         <v>1.0384149432278993</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>30.541615977291155</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>216.33644650581238</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L6" s="2">
         <v>0.83</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>34</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>4.8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="O6" s="2">
         <v>0.52</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>0.11</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>0.02</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="R6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S6" t="s">
+        <v>238</v>
+      </c>
+      <c r="T6" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" t="s">
+        <v>238</v>
+      </c>
+      <c r="V6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" t="s">
+        <v>238</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4722,32 +4832,66 @@
         <f>E7*'Dollar Conversion'!$Q$4</f>
         <v>1.0631391085428494</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>31.268797310083805</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>221.48731427976031</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>28.235294117647054</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.96</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>0.73</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>34</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>4.8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>0.12</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>0.02</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="R7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S7" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U7" t="s">
+        <v>238</v>
+      </c>
+      <c r="V7" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" t="s">
+        <v>238</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4767,32 +4911,66 @@
         <f>E8*'Dollar Conversion'!$Q$4</f>
         <v>1.1620357698026493</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>31.406372156828361</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>237.15015710258146</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>29.729729729729733</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>224.48979591836732</v>
+      </c>
+      <c r="K8" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="2">
         <v>0.88</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>37</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K8" s="2">
+      <c r="O8" s="2">
         <v>0.65</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>0.13</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>0.02</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="R8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S8" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" t="s">
+        <v>238</v>
+      </c>
+      <c r="U8" t="s">
+        <v>238</v>
+      </c>
+      <c r="V8" t="s">
+        <v>238</v>
+      </c>
+      <c r="W8" t="s">
+        <v>238</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4812,32 +4990,66 @@
         <f>E9*'Dollar Conversion'!$Q$4</f>
         <v>1.1002253565152744</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>29.735820446358769</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>224.53578704393351</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>29.729729729729733</v>
+      </c>
+      <c r="J9" s="2">
+        <f>K9/(N9/1000)</f>
+        <v>224.48979591836732</v>
+      </c>
+      <c r="K9" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="L9" s="2">
         <v>0.86</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>37</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>0.64</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>0.13</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>0.02</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="R9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S9" t="s">
+        <v>238</v>
+      </c>
+      <c r="T9" t="s">
+        <v>238</v>
+      </c>
+      <c r="U9" t="s">
+        <v>238</v>
+      </c>
+      <c r="V9" t="s">
+        <v>238</v>
+      </c>
+      <c r="W9" t="s">
+        <v>238</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -4857,32 +5069,66 @@
         <f>E10*'Dollar Conversion'!$Q$4</f>
         <v>1.730691572046499</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>44.376706975551258</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>346.13831440929982</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="K10" s="2">
         <v>1.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="L10" s="2">
         <v>1.2</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>39</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="O10" s="2">
         <v>1.5</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>0.3</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>0.04</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="R10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S10" t="s">
+        <v>238</v>
+      </c>
+      <c r="T10" t="s">
+        <v>238</v>
+      </c>
+      <c r="U10" t="s">
+        <v>238</v>
+      </c>
+      <c r="V10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W10" t="s">
+        <v>238</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4902,539 +5148,113 @@
         <f>E11*'Dollar Conversion'!$Q$4</f>
         <v>1.6070707454717492</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>42.291335407151294</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>321.41414909434985</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="J11" s="2">
+        <f>K11/(N11/1000)</f>
+        <v>360</v>
+      </c>
+      <c r="K11" s="2">
         <v>1.8</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L11" s="2">
         <v>1.2</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>38</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="O11" s="2">
         <v>1.4</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M11">
+      <c r="Q11" s="26">
         <v>0.04</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="R11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" t="s">
+        <v>238</v>
+      </c>
+      <c r="W11" t="s">
+        <v>238</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G12" s="22">
-        <f>L14*H20</f>
-        <v>0.28711045772727267</v>
-      </c>
-      <c r="H12" s="22">
-        <f>L14*H19</f>
-        <v>0.14024120007931076</v>
-      </c>
-      <c r="L12">
-        <f>L11*J11</f>
-        <v>1.45</v>
-      </c>
-      <c r="M12">
-        <f>M11*I11</f>
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H13" s="22">
-        <f>G11-H11</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="22">
-        <f>G12-H12</f>
-        <v>0.14686925764796191</v>
-      </c>
-      <c r="L14" s="22">
-        <f>K5</f>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K15">
-        <v>0.4</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K16" s="22">
-        <f>K15/K6</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="L16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="23">
-        <f>[1]NRL12!$W$10</f>
-        <v>604.96203955781107</v>
-      </c>
-      <c r="H19" s="2">
-        <f>G19/J17/1000</f>
-        <v>0.27498274525355049</v>
-      </c>
-      <c r="I19" s="18">
-        <f>H19/H20</f>
-        <v>0.48845730381763525</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="23">
-        <f>[2]US10!$U$6</f>
-        <v>1238.5156999999999</v>
-      </c>
-      <c r="H20" s="2">
-        <f>G20/J17/1000</f>
-        <v>0.56296168181818174</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H21" s="25"/>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="22">
-        <f>G3-H3</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="H26" s="24">
-        <f>H3/G3</f>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="J26" s="26">
-        <f>$H$20*K3</f>
-        <v>0.11259233636363636</v>
-      </c>
-      <c r="K26" s="26">
-        <f>$H$19*K3</f>
-        <v>5.4996549050710102E-2</v>
-      </c>
-      <c r="L26" s="2">
-        <f>J26-K26</f>
-        <v>5.7595787312926257E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G27" s="22">
-        <f t="shared" ref="G27:G34" si="0">G4-H4</f>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="H27" s="24">
-        <f t="shared" ref="H27:H34" si="1">H4/G4</f>
-        <v>0.75324675324675316</v>
-      </c>
-      <c r="J27" s="26">
-        <f t="shared" ref="J27:J34" si="2">$H$20*K4</f>
-        <v>0.2702216072727272</v>
-      </c>
-      <c r="K27" s="26">
-        <f t="shared" ref="K27:K34" si="3">$H$19*K4</f>
-        <v>0.13199171772170423</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" ref="L27:L35" si="4">J27-K27</f>
-        <v>0.13822988955102297</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G28" s="22">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="H28" s="24">
-        <f t="shared" si="1"/>
-        <v>0.78260869565217384</v>
-      </c>
-      <c r="J28" s="26">
-        <f t="shared" si="2"/>
-        <v>0.28711045772727267</v>
-      </c>
-      <c r="K28" s="26">
-        <f t="shared" si="3"/>
-        <v>0.14024120007931076</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14686925764796191</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="22">
-        <f t="shared" si="0"/>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="H29" s="24">
-        <f t="shared" si="1"/>
-        <v>0.83</v>
-      </c>
-      <c r="J29" s="26">
-        <f t="shared" si="2"/>
-        <v>0.29274007454545453</v>
-      </c>
-      <c r="K29" s="26">
-        <f t="shared" si="3"/>
-        <v>0.14299102753184625</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14974904701360828</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="G30" s="22">
-        <f t="shared" si="0"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="H30" s="24">
-        <f t="shared" si="1"/>
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="2"/>
-        <v>0.32088815863636355</v>
-      </c>
-      <c r="K30" s="26">
-        <f t="shared" si="3"/>
-        <v>0.15674016479452377</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16414799384183978</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="22">
-        <f t="shared" si="0"/>
-        <v>0.22000000000000008</v>
-      </c>
-      <c r="H31" s="24">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="J31" s="26">
-        <f t="shared" si="2"/>
-        <v>0.36592509318181815</v>
-      </c>
-      <c r="K31" s="26">
-        <f t="shared" si="3"/>
-        <v>0.17873878441480781</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18718630876701034</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="22">
-        <f t="shared" si="0"/>
-        <v>0.2400000000000001</v>
-      </c>
-      <c r="H32" s="24">
-        <f t="shared" si="1"/>
-        <v>0.78181818181818175</v>
-      </c>
-      <c r="J32" s="26">
-        <f t="shared" si="2"/>
-        <v>0.36029547636363629</v>
-      </c>
-      <c r="K32" s="26">
-        <f t="shared" si="3"/>
-        <v>0.17598895696227232</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18430651940136397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="22">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H33" s="24">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J33" s="26">
-        <f t="shared" si="2"/>
-        <v>0.8444425227272726</v>
-      </c>
-      <c r="K33" s="26">
-        <f t="shared" si="3"/>
-        <v>0.41247411788032573</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.43196840484694687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="22">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H34" s="24">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J34" s="26">
-        <f t="shared" si="2"/>
-        <v>0.78814635454545434</v>
-      </c>
-      <c r="K34" s="26">
-        <f t="shared" si="3"/>
-        <v>0.38497584335497065</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40317051119048369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="24"/>
-      <c r="K35">
-        <f t="shared" ref="K35" si="5">$H$44*K12</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F41" s="1">
-        <f>E41*'Dollar Conversion'!$Q$4</f>
-        <v>1.0384149432278993</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="I41">
-        <v>34</v>
-      </c>
-      <c r="J41">
-        <v>4.8</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="L41">
-        <v>0.11</v>
-      </c>
-      <c r="M41">
-        <v>0.02</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42">
-        <v>0.4</v>
-      </c>
-      <c r="H42" s="22">
-        <f>H41-G43</f>
-        <v>0.22999999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G44" s="22">
-        <f>G42/K41</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="H44" s="22">
-        <f>H42/K41</f>
-        <v>0.44230769230769224</v>
-      </c>
-      <c r="I44">
-        <f>H44/G44</f>
-        <v>0.57499999999999984</v>
-      </c>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="34"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="34"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="44"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="EPA LCA" xr:uid="{C2C7D3A5-8E65-5C4D-8004-18AB49B72F91}"/>
-    <hyperlink ref="N4" r:id="rId2" display="EPA LCA" xr:uid="{B5C0E1DB-19A7-F84C-91BA-907DC0B3CA24}"/>
-    <hyperlink ref="N5" r:id="rId3" display="EPA LCA" xr:uid="{5CB5CFDC-866F-B943-9D82-788C723EC417}"/>
-    <hyperlink ref="N6" r:id="rId4" display="EPA LCA" xr:uid="{AB84B8DC-47AC-3E46-92C7-F9F75AAA934B}"/>
-    <hyperlink ref="N7" r:id="rId5" display="EPA LCA" xr:uid="{7DA4A018-6C82-E04B-AE38-769BC38A5E98}"/>
-    <hyperlink ref="N8" r:id="rId6" display="EPA LCA" xr:uid="{5776F51D-BB25-DD4B-8040-AFD23C6447F3}"/>
-    <hyperlink ref="N9" r:id="rId7" display="EPA LCA" xr:uid="{88F52ACF-A536-6D4B-89B6-31FD250D1DE5}"/>
-    <hyperlink ref="N10" r:id="rId8" display="EPA LCA" xr:uid="{6809BFBA-2A6D-4A48-8E95-5D65FF9B1241}"/>
-    <hyperlink ref="N11" r:id="rId9" display="EPA LCA" xr:uid="{C715F452-73A8-3C40-A2FF-7FEC1916A5CD}"/>
-    <hyperlink ref="N41" r:id="rId10" display="EPA LCA" xr:uid="{B85AF98F-F52E-4D42-8E98-DF396E7F405E}"/>
+    <hyperlink ref="X3" r:id="rId1" display="EPA LCA" xr:uid="{5DC50702-C3AA-704E-A374-FE13418AEBDB}"/>
+    <hyperlink ref="X4" r:id="rId2" display="EPA LCA" xr:uid="{11CD774F-74CA-0C40-BA52-CE7A8F128513}"/>
+    <hyperlink ref="X5" r:id="rId3" display="EPA LCA" xr:uid="{8CB331D2-74E1-9F46-B7FC-1CF2645CD297}"/>
+    <hyperlink ref="X6" r:id="rId4" display="EPA LCA" xr:uid="{A43BE32D-28B8-2C4B-9B3B-C9DFAB145500}"/>
+    <hyperlink ref="X7" r:id="rId5" display="EPA LCA" xr:uid="{651ABD76-BBC7-D140-A691-986B2B8833B3}"/>
+    <hyperlink ref="X8" r:id="rId6" display="EPA LCA" xr:uid="{ED14D076-A258-4844-B4A4-4E980A790F43}"/>
+    <hyperlink ref="X9" r:id="rId7" display="EPA LCA" xr:uid="{230BA9A7-BA1E-C24D-BC90-5BFF3A18D989}"/>
+    <hyperlink ref="X10" r:id="rId8" display="EPA LCA" xr:uid="{EDABB9B8-470E-6D4A-9934-4E004DEB26FE}"/>
+    <hyperlink ref="X11" r:id="rId9" display="EPA LCA" xr:uid="{7F3CECE1-D725-B848-B326-6638EB66710A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5447,8 +5267,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5460,16 +5280,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,37 +6211,37 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>289</v>
-      </c>
       <c r="I1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L1" t="str">
         <f>'Green Water Treatment Illinois'!U1</f>
@@ -6440,7 +6260,7 @@
         <v>Fertilizer</v>
       </c>
       <c r="P1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6449,7 +6269,7 @@
         <v>Level 1: Conventional Plug Flow Activated Sludge</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" t="str">
         <f>'Gray Water Treatment Options'!D3</f>
@@ -6458,11 +6278,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <f>'Gray Water Treatment Options'!G3</f>
         <v>81.564256709113366</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <f>'Gray Water Treatment Options'!H3</f>
         <v>13186.22150130666</v>
       </c>
@@ -6487,16 +6307,16 @@
         <v>Yes</v>
       </c>
       <c r="L2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P2" t="s">
         <v>18</v>
@@ -6508,7 +6328,7 @@
         <v>Level 2-1: Anaerobic/Anoxic/Oxic</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" t="str">
         <f>'Gray Water Treatment Options'!D4</f>
@@ -6517,11 +6337,11 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <f>'Gray Water Treatment Options'!G4</f>
         <v>28.58731614541092</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <f>'Gray Water Treatment Options'!H4</f>
         <v>194.63704609641476</v>
       </c>
@@ -6546,16 +6366,16 @@
         <v>Yes</v>
       </c>
       <c r="L3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
@@ -6567,7 +6387,7 @@
         <v>Level 2-2: Activated Sludge, 3-Sludge System</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" t="str">
         <f>'Gray Water Treatment Options'!D5</f>
@@ -6576,11 +6396,11 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <f>'Gray Water Treatment Options'!G5</f>
         <v>46.357809965531224</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <f>'Gray Water Treatment Options'!H5</f>
         <v>370.86247972424979</v>
       </c>
@@ -6605,16 +6425,16 @@
         <v>Yes</v>
       </c>
       <c r="L4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P4" t="s">
         <v>18</v>
@@ -6626,7 +6446,7 @@
         <v>Level 3-1: 5-Stage Bardenpho</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" t="str">
         <f>'Gray Water Treatment Options'!D6</f>
@@ -6635,11 +6455,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>'Gray Water Treatment Options'!G6</f>
         <v>30.541615977291155</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f>'Gray Water Treatment Options'!H6</f>
         <v>216.33644650581238</v>
       </c>
@@ -6664,16 +6484,16 @@
         <v>Yes</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P5" t="s">
         <v>18</v>
@@ -6685,7 +6505,7 @@
         <v>Level 3-2: Modified University of Cape Town Process</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" t="str">
         <f>'Gray Water Treatment Options'!D7</f>
@@ -6694,11 +6514,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f>'Gray Water Treatment Options'!G7</f>
         <v>31.268797310083805</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f>'Gray Water Treatment Options'!H7</f>
         <v>221.48731427976031</v>
       </c>
@@ -6723,16 +6543,16 @@
         <v>Yes</v>
       </c>
       <c r="L6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
@@ -6744,7 +6564,7 @@
         <v>Level 4-1: 5-Stage Bardenpho with Denitrification Filter</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" t="str">
         <f>'Gray Water Treatment Options'!D8</f>
@@ -6753,11 +6573,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <f>'Gray Water Treatment Options'!G8</f>
         <v>31.406372156828361</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f>'Gray Water Treatment Options'!H8</f>
         <v>237.15015710258146</v>
       </c>
@@ -6782,16 +6602,16 @@
         <v>Yes</v>
       </c>
       <c r="L7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
@@ -6803,7 +6623,7 @@
         <v>Level 4-2: 4-Stage Bardenpho Membrane Bioreactor</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" t="str">
         <f>'Gray Water Treatment Options'!D9</f>
@@ -6812,11 +6632,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <f>'Gray Water Treatment Options'!G9</f>
         <v>29.735820446358769</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <f>'Gray Water Treatment Options'!H9</f>
         <v>224.53578704393351</v>
       </c>
@@ -6841,16 +6661,16 @@
         <v>Yes</v>
       </c>
       <c r="L8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
@@ -6862,7 +6682,7 @@
         <v>Level 5-1: 5-Stage Bardenpho with Sidestream Reverse Osmosis Treatment</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" t="str">
         <f>'Gray Water Treatment Options'!D10</f>
@@ -6871,11 +6691,11 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <f>'Gray Water Treatment Options'!G10</f>
         <v>44.376706975551258</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <f>'Gray Water Treatment Options'!H10</f>
         <v>346.13831440929982</v>
       </c>
@@ -6900,16 +6720,16 @@
         <v>Yes</v>
       </c>
       <c r="L9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P9" t="s">
         <v>18</v>
@@ -6921,7 +6741,7 @@
         <v>Level 5-2: 5-Stage Bardenpho Membrane Bioreactor with Sidestream Reverse Osmosis Treatment</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" t="str">
         <f>'Gray Water Treatment Options'!D11</f>
@@ -6930,11 +6750,11 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <f>'Gray Water Treatment Options'!G11</f>
         <v>42.291335407151294</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <f>'Gray Water Treatment Options'!H11</f>
         <v>321.41414909434985</v>
       </c>
@@ -6959,16 +6779,16 @@
         <v>Yes</v>
       </c>
       <c r="L10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
@@ -6988,13 +6808,13 @@
         <v>Green</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="27">
+        <v>278</v>
+      </c>
+      <c r="E11" s="25">
         <f>'Green Water Treatment Illinois'!I3</f>
         <v>1.9509764298541292</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <f>'Green Water Treatment Illinois'!J3</f>
         <v>14.632323223905969</v>
       </c>
@@ -7006,11 +6826,11 @@
         <f>'Green Water Treatment Illinois'!L3</f>
         <v>2.6548241406006943</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <f>'Green Water Treatment Illinois'!O3</f>
         <v>0.9</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <f>'Green Water Treatment Illinois'!P3</f>
         <v>0.5</v>
       </c>
@@ -7034,9 +6854,9 @@
         <f>'Green Water Treatment Illinois'!X3</f>
         <v>No</v>
       </c>
-      <c r="P11" s="43" t="e">
+      <c r="P11" s="41">
         <f>'Green Water Treatment Illinois'!Z3</f>
-        <v>#REF!</v>
+        <v>6.5359477124183013E-5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7053,13 +6873,13 @@
         <v>Green</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="27">
+        <v>278</v>
+      </c>
+      <c r="E12" s="25">
         <f>'Green Water Treatment Illinois'!I4</f>
         <v>2.6825925910494277</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <f>'Green Water Treatment Illinois'!J4</f>
         <v>0</v>
       </c>
@@ -7071,11 +6891,11 @@
         <f>'Green Water Treatment Illinois'!L4</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f>'Green Water Treatment Illinois'!O4</f>
         <v>0.25</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <f>'Green Water Treatment Illinois'!P4</f>
         <v>0</v>
       </c>
@@ -7099,9 +6919,9 @@
         <f>'Green Water Treatment Illinois'!X4</f>
         <v>No</v>
       </c>
-      <c r="P12" s="43" t="e">
+      <c r="P12" s="41">
         <f>'Green Water Treatment Illinois'!Z4</f>
-        <v>#REF!</v>
+        <v>6.5359477124183013E-5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -7118,13 +6938,13 @@
         <v>Green</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="27">
+        <v>278</v>
+      </c>
+      <c r="E13" s="25">
         <f>'Green Water Treatment Illinois'!I5</f>
         <v>4.8774410746353229</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <f>'Green Water Treatment Illinois'!J5</f>
         <v>0</v>
       </c>
@@ -7136,11 +6956,11 @@
         <f>'Green Water Treatment Illinois'!L5</f>
         <v>0</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="27">
         <f>'Green Water Treatment Illinois'!O5</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <f>'Green Water Treatment Illinois'!P5</f>
         <v>0</v>
       </c>
@@ -7164,9 +6984,9 @@
         <f>'Green Water Treatment Illinois'!X5</f>
         <v>No</v>
       </c>
-      <c r="P13" s="43" t="e">
+      <c r="P13" s="41">
         <f>'Green Water Treatment Illinois'!Z5</f>
-        <v>#REF!</v>
+        <v>3.4967320261437909E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7183,13 +7003,13 @@
         <v>Green</v>
       </c>
       <c r="D14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="27">
+        <v>279</v>
+      </c>
+      <c r="E14" s="25">
         <f>'Green Water Treatment Illinois'!I6</f>
         <v>-5.182281141800031</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <f>'Green Water Treatment Illinois'!J6</f>
         <v>-59.504781110550937</v>
       </c>
@@ -7201,11 +7021,11 @@
         <f>'Green Water Treatment Illinois'!L6</f>
         <v>-105.71966386554621</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="27">
         <f>'Green Water Treatment Illinois'!O6</f>
         <v>0.1</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="27">
         <f>'Green Water Treatment Illinois'!P6</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7229,9 +7049,9 @@
         <f>'Green Water Treatment Illinois'!X6</f>
         <v>Yes</v>
       </c>
-      <c r="P14" s="43" t="e">
+      <c r="P14" s="41">
         <f>'Green Water Treatment Illinois'!Z6</f>
-        <v>#REF!</v>
+        <v>0.18627450980392157</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -7248,13 +7068,13 @@
         <v>Green</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="27">
+        <v>279</v>
+      </c>
+      <c r="E15" s="25">
         <f>'Green Water Treatment Illinois'!I7</f>
         <v>7.5600336656847507</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <f>'Green Water Treatment Illinois'!J7</f>
         <v>0</v>
       </c>
@@ -7266,11 +7086,11 @@
         <f>'Green Water Treatment Illinois'!L7</f>
         <v>0</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="27">
         <f>'Green Water Treatment Illinois'!O7</f>
         <v>0.1</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <f>'Green Water Treatment Illinois'!P7</f>
         <v>0</v>
       </c>
@@ -7294,9 +7114,9 @@
         <f>'Green Water Treatment Illinois'!X7</f>
         <v>Yes</v>
       </c>
-      <c r="P15" s="43" t="e">
+      <c r="P15" s="41">
         <f>'Green Water Treatment Illinois'!Z7</f>
-        <v>#REF!</v>
+        <v>0.18627450980392157</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7313,13 +7133,13 @@
         <v>Green</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="27">
+        <v>279</v>
+      </c>
+      <c r="E16" s="25">
         <f>'Green Water Treatment Illinois'!I8</f>
         <v>3.9019528597082584</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <f>'Green Water Treatment Illinois'!J8</f>
         <v>158.516834925648</v>
       </c>
@@ -7331,11 +7151,11 @@
         <f>'Green Water Treatment Illinois'!L8</f>
         <v>8.1035479307827316</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="27">
         <f>'Green Water Treatment Illinois'!O8</f>
         <v>0.3</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <f>'Green Water Treatment Illinois'!P8</f>
         <v>0.3</v>
       </c>
@@ -7359,9 +7179,9 @@
         <f>'Green Water Treatment Illinois'!X8</f>
         <v>No</v>
       </c>
-      <c r="P16" s="43" t="e">
+      <c r="P16" s="41">
         <f>'Green Water Treatment Illinois'!Z8</f>
-        <v>#REF!</v>
+        <v>3.1797385620915032E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -7378,13 +7198,13 @@
         <v>Green</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="27">
+        <v>279</v>
+      </c>
+      <c r="E17" s="25">
         <f>'Green Water Treatment Illinois'!I9</f>
         <v>0</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="25">
         <f>'Green Water Treatment Illinois'!J9</f>
         <v>-20.241380459736593</v>
       </c>
@@ -7396,11 +7216,11 @@
         <f>'Green Water Treatment Illinois'!L9</f>
         <v>-91.350687499999992</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <f>'Green Water Treatment Illinois'!O9</f>
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <f>'Green Water Treatment Illinois'!P9</f>
         <v>0.5</v>
       </c>
@@ -7424,9 +7244,9 @@
         <f>'Green Water Treatment Illinois'!X9</f>
         <v>No</v>
       </c>
-      <c r="P17" s="43" t="e">
+      <c r="P17" s="41">
         <f>'Green Water Treatment Illinois'!Z9</f>
-        <v>#REF!</v>
+        <v>0.26797385620915032</v>
       </c>
     </row>
   </sheetData>
@@ -7443,7 +7263,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7480,19 +7300,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>20</v>
@@ -7516,19 +7336,19 @@
         <v>17</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>1</v>
@@ -7547,13 +7367,13 @@
         <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>21</v>
@@ -7578,16 +7398,16 @@
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V2" s="5"/>
     </row>
@@ -7634,25 +7454,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -7696,25 +7516,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -7758,25 +7578,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -7822,25 +7642,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -7885,25 +7705,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -7949,25 +7769,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -8010,25 +7830,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -8121,7 +7941,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8159,10 +7979,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>27</v>
@@ -8171,22 +7991,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>20</v>
@@ -8210,25 +8030,25 @@
         <v>17</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="X1" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>1</v>
@@ -8241,22 +8061,22 @@
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>21</v>
@@ -8281,19 +8101,19 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>54</v>
@@ -8302,17 +8122,17 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>Buffers</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -8338,7 +8158,7 @@
         <f>'Green Emissions - N'!G20</f>
         <v>0.10025753474610297</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="39">
         <f>'Green Emissions - P'!G19</f>
         <v>2.6548241406006943</v>
       </c>
@@ -8358,29 +8178,29 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y3" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z3" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>238</v>
+      </c>
+      <c r="Z3" s="43">
+        <f>'Green Treatment Use'!D7</f>
+        <v>6.5359477124183013E-5</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="3"/>
     </row>
@@ -8393,10 +8213,10 @@
         <v>Bioreactors</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -8422,7 +8242,7 @@
         <f>'Green Emissions - N'!B2</f>
         <v>0.69556447643512431</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="39">
         <v>0</v>
       </c>
       <c r="M4">
@@ -8441,29 +8261,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z4" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>238</v>
+      </c>
+      <c r="Z4" s="43">
+        <f>'Green Treatment Use'!D6</f>
+        <v>6.5359477124183013E-5</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -8476,10 +8296,10 @@
         <v>Wetland</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -8505,7 +8325,7 @@
         <f>'Green Emissions - N'!L53</f>
         <v>-3.8975548447566473</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <v>0</v>
       </c>
       <c r="M5">
@@ -8524,29 +8344,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y5" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z5" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>238</v>
+      </c>
+      <c r="Z5" s="43">
+        <f>'Green Treatment Use'!D8</f>
+        <v>3.4967320261437909E-3</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="3"/>
     </row>
@@ -8559,10 +8379,10 @@
         <v>N Rate Reduction</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8588,7 +8408,7 @@
         <f>'Green Emissions - N'!G8</f>
         <v>-9.2071428571428573</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <f>J6/I6*K6</f>
         <v>-105.71966386554621</v>
       </c>
@@ -8608,45 +8428,45 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y6" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z6" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z6" s="43">
+        <f>'Green Treatment Use'!D4</f>
+        <v>0.18627450980392157</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>Split N Application</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -8672,7 +8492,7 @@
         <f>'Green Emissions - N'!G15</f>
         <v>11.102512533037871</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <v>0</v>
       </c>
       <c r="M7">
@@ -8691,29 +8511,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z7" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z7" s="43">
+        <f>'Green Treatment Use'!D4</f>
+        <v>0.18627450980392157</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="3"/>
     </row>
@@ -8726,10 +8546,10 @@
         <v>Cover Crop</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -8755,7 +8575,7 @@
         <f>'Green Emissions - N'!G2</f>
         <v>0.55084444444444447</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <f>'Green Emissions - P'!G2</f>
         <v>8.1035479307827316</v>
       </c>
@@ -8775,45 +8595,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z8" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z8" s="43">
+        <f>'Green Treatment Use'!D3</f>
+        <v>3.1797385620915032E-2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>No-till</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -8835,10 +8655,10 @@
         <f>H9*'Dollar Conversion'!$Q$6</f>
         <v>-20.241380459736593</v>
       </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="41">
+      <c r="K9" s="39">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
         <f>'Green Emissions - P'!G11</f>
         <v>-91.350687499999992</v>
       </c>
@@ -8858,29 +8678,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z9" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z9" s="43">
+        <f>'Green Treatment Use'!D5</f>
+        <v>0.26797385620915032</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB9" s="3"/>
     </row>
@@ -8893,7 +8713,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G23" s="4"/>
@@ -8901,7 +8721,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G24" s="4"/>
@@ -8909,7 +8729,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G25" s="4"/>
@@ -8917,7 +8737,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G26" s="4"/>
@@ -8925,11 +8745,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G27" s="4"/>
@@ -8937,7 +8757,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="28"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G28" s="4"/>
@@ -9014,10 +8834,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>27</v>
@@ -9026,22 +8846,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>20</v>
@@ -9065,25 +8885,25 @@
         <v>17</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="X1" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>1</v>
@@ -9096,22 +8916,22 @@
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>21</v>
@@ -9136,19 +8956,19 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>54</v>
@@ -9157,17 +8977,17 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>Buffers</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -9189,11 +9009,11 @@
         <f>H3*'Dollar Conversion'!$Q$6</f>
         <v>14.632323223905969</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="45">
         <f>'Green Emissions - N'!G20</f>
         <v>0.10025753474610297</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="39">
         <f>'Green Emissions - P'!G19</f>
         <v>2.6548241406006943</v>
       </c>
@@ -9213,30 +9033,30 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y3" s="2">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="Z3" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="Z3" s="43">
+        <f>'Green Treatment Use'!D7</f>
+        <v>6.5359477124183013E-5</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="3"/>
     </row>
@@ -9249,10 +9069,10 @@
         <v>Bioreactors</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -9278,7 +9098,7 @@
         <f>'Green Emissions - N'!B2</f>
         <v>0.69556447643512431</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="39">
         <v>0</v>
       </c>
       <c r="M4">
@@ -9297,30 +9117,30 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y4" s="2">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="Z4" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="Z4" s="43">
+        <f>'Green Treatment Use'!D6</f>
+        <v>6.5359477124183013E-5</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -9333,10 +9153,10 @@
         <v>Wetland</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -9362,7 +9182,7 @@
         <f>'Green Emissions - N'!L53</f>
         <v>-3.8975548447566473</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <v>0</v>
       </c>
       <c r="M5">
@@ -9381,30 +9201,30 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y5" s="2">
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z5" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="Z5" s="43">
+        <f>'Green Treatment Use'!D8</f>
+        <v>3.4967320261437909E-3</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="3"/>
     </row>
@@ -9417,10 +9237,10 @@
         <v>N Rate Reduction</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -9444,7 +9264,7 @@
         <f>'Green Emissions - N'!G8</f>
         <v>-9.2071428571428573</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <f>'Green Water Treatment Illinois'!L6</f>
         <v>-105.71966386554621</v>
       </c>
@@ -9464,45 +9284,45 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y6" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z6" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z6" s="43">
+        <f>'Green Treatment Use'!D4</f>
+        <v>0.18627450980392157</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>Split N Application</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -9528,7 +9348,7 @@
         <f>'Green Emissions - N'!G15</f>
         <v>11.102512533037871</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <v>0</v>
       </c>
       <c r="M7">
@@ -9547,29 +9367,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z7" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z7" s="43">
+        <f>'Green Treatment Use'!D4</f>
+        <v>0.18627450980392157</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="3"/>
     </row>
@@ -9582,10 +9402,10 @@
         <v>Cover Crop</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -9611,7 +9431,7 @@
         <f>'Green Emissions - N'!G2</f>
         <v>0.55084444444444447</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <f>'Green Emissions - P'!G2</f>
         <v>8.1035479307827316</v>
       </c>
@@ -9631,45 +9451,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z8" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z8" s="43">
+        <f>'Green Treatment Use'!D3</f>
+        <v>3.1797385620915032E-2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>No-till</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -9690,10 +9510,10 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="41">
+      <c r="K9" s="39">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
         <f>'Green Emissions - P'!G11</f>
         <v>-91.350687499999992</v>
       </c>
@@ -9713,29 +9533,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Y9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z9" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>239</v>
+      </c>
+      <c r="Z9" s="43">
+        <f>'Green Treatment Use'!D5</f>
+        <v>0.26797385620915032</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AB9" s="3"/>
     </row>
@@ -9748,7 +9568,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G23" s="4"/>
@@ -9756,7 +9576,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G24" s="4"/>
@@ -9764,7 +9584,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G25" s="4"/>
@@ -9772,7 +9592,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G26" s="4"/>
@@ -9780,11 +9600,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G27" s="4"/>
@@ -9792,7 +9612,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="28"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G28" s="4"/>
@@ -9872,22 +9692,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>20</v>
@@ -9911,19 +9731,19 @@
         <v>17</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="V1" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>1</v>
@@ -9936,22 +9756,22 @@
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>21</v>
@@ -9976,22 +9796,22 @@
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
@@ -10018,7 +9838,7 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="39">
         <v>1</v>
       </c>
       <c r="K3">
@@ -10037,22 +9857,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="T3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X3" s="3"/>
     </row>
@@ -10088,7 +9908,7 @@
         <f>'Green Emissions - N'!B2</f>
         <v>0.69556447643512431</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="39">
         <v>0</v>
       </c>
       <c r="K4">
@@ -10107,22 +9927,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X4" s="3"/>
     </row>
@@ -10158,7 +9978,7 @@
         <f>'Green Emissions - N'!L53</f>
         <v>-3.8975548447566473</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="39">
         <v>0</v>
       </c>
       <c r="K5">
@@ -10177,22 +9997,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X5" s="3"/>
     </row>
@@ -10216,16 +10036,16 @@
       <c r="F6" s="1">
         <v>-48.8</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="42">
         <v>100000</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <v>-100000</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="42">
         <v>-100000</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="42">
         <v>100000</v>
       </c>
       <c r="K6">
@@ -10244,28 +10064,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -10295,7 +10115,7 @@
         <f>'Green Emissions - N'!G15</f>
         <v>11.102512533037871</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="39">
         <v>0</v>
       </c>
       <c r="K7">
@@ -10314,22 +10134,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X7" s="3"/>
     </row>
@@ -10353,16 +10173,16 @@
       <c r="F8" s="1">
         <v>130</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="42">
         <v>-100000</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <v>100000</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="42">
         <v>100000</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="42">
         <v>-100000</v>
       </c>
       <c r="K8">
@@ -10381,28 +10201,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -10427,10 +10247,10 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="41">
-        <v>0</v>
-      </c>
-      <c r="J9" s="41">
+      <c r="I9" s="39">
+        <v>0</v>
+      </c>
+      <c r="J9" s="39">
         <f>'Green Emissions - P'!G11</f>
         <v>-91.350687499999992</v>
       </c>
@@ -10450,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="S9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="X9" s="3"/>
     </row>
@@ -10478,7 +10298,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="28"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
@@ -10486,7 +10306,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
@@ -10494,7 +10314,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="28"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
@@ -10502,7 +10322,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="28"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
@@ -10510,11 +10330,11 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
@@ -10522,7 +10342,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="28"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
@@ -10586,474 +10406,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="32">
+      <c r="A2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="30">
         <f>B15+B21+B25+B30+B32</f>
         <v>0.69556447643512431</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="F2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="30">
         <f>G3*G4*B39/G5</f>
         <v>0.55084444444444447</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="32">
+      <c r="K2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="30">
         <f>L14+L16+L24+L29+L36+L53</f>
         <v>-3.5772015269755575</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>0.24787999999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L3">
         <f>12/12*B43</f>
         <v>0.30480000000000002</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>700</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="29">
+        <v>183</v>
+      </c>
+      <c r="L4" s="27">
         <v>0.02</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="37">
+        <v>240</v>
+      </c>
+      <c r="G5" s="35">
         <f>B6*B7*B39*'Green Water Treatment Illinois'!O8</f>
         <v>142.88147999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L5">
         <f>L4*$B$6*$B$42</f>
         <v>4046.86</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L6" s="18">
         <f>2*L4</f>
         <v>0.04</v>
       </c>
       <c r="N6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L7" s="22">
         <f>L6*$B$6*$B$42</f>
         <v>8093.72</v>
       </c>
       <c r="M7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="37">
+        <v>240</v>
+      </c>
+      <c r="B8" s="35">
         <f>B6*B7*B39*'Green Water Treatment Illinois'!O4</f>
         <v>119.06789999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="32">
+        <v>100</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="30">
         <f>G11*(G10-G9)/G12</f>
         <v>-9.2071428571428573</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="28">
+        <v>146</v>
+      </c>
+      <c r="G9" s="26">
         <f>190*B39</f>
         <v>86.182479999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="37">
+        <v>240</v>
+      </c>
+      <c r="L9" s="35">
         <f>B6*B7*B39*'Green Water Treatment Illinois'!O5</f>
         <v>238.13579999999999</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="29">
+        <v>131</v>
+      </c>
+      <c r="B10" s="27">
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="28">
+        <v>147</v>
+      </c>
+      <c r="G10" s="26">
         <f>140*B39</f>
         <v>63.502879999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L10">
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="28">
+        <v>149</v>
+      </c>
+      <c r="G11" s="26">
         <v>5.1559999999999997</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <f>PRODUCT(B3:B5)</f>
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="28">
+        <v>151</v>
+      </c>
+      <c r="G12" s="26">
         <f>(104-76)*B39</f>
         <v>12.700576</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L12" s="22">
         <f>(L7+L5)*L3</f>
         <v>3700.4487840000002</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>2.7550000000000002E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L13">
         <v>0.52476</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="37" t="s">
         <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="30">
+        <v>139</v>
+      </c>
+      <c r="L14" s="28">
         <f>L12*L13/(L9*L10)</f>
         <v>0.20385925844537447</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="30">
+        <v>126</v>
+      </c>
+      <c r="B15" s="28">
         <f>B12*B38*B14*B13/(B8*B9)</f>
         <v>0.50417406549120303</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="32">
+        <v>127</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="30">
         <f>B6*B47*G16/G17</f>
         <v>11.102512533037871</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="F16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="42">
+        <v>242</v>
+      </c>
+      <c r="G16" s="40">
         <v>26.132909999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="30">
+        <v>168</v>
+      </c>
+      <c r="L16" s="28">
         <f>G48/(L9*L10)</f>
         <v>8.3828099248526265E-3</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <f>B3*B4+2*B5*B4+2*B3*B5</f>
         <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="37">
+        <v>240</v>
+      </c>
+      <c r="G17" s="35">
         <f>B6*B7*B39*'Green Water Treatment Illinois'!O7</f>
         <v>47.627160000000003</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L18" s="2">
         <v>2</v>
@@ -11061,122 +10881,122 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>1.0770900000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L19" s="2">
         <f>SQRT(L5*L18)</f>
         <v>89.965104346074099</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B20">
         <v>0.94</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="32">
+      <c r="F20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="30">
         <f>G31+G36+G38</f>
         <v>0.10025753474610297</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I20" s="6"/>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L20" s="2">
         <f>L19/L18</f>
         <v>44.98255217303705</v>
       </c>
       <c r="M20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="30">
+        <v>130</v>
+      </c>
+      <c r="B21" s="28">
         <f>B20*B40*(B41*B18*B17*B38)*B19*(1+B10)/(B8*B9)</f>
         <v>1.6686440495187797E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L21" s="22">
         <f>2*L19+2*L20</f>
         <v>269.8953130382223</v>
       </c>
       <c r="M21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G22" s="2">
         <f>SQRT(G21*B42)</f>
         <v>449.8255217303705</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L22" s="22">
         <f>1.54*G36</f>
         <v>0.12126468069493131</v>
       </c>
       <c r="M22" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>1</v>
@@ -11184,144 +11004,144 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B23" s="22">
         <f>B12*(1+B10)*B38</f>
         <v>126.15157499999999</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G23" s="2">
         <f>(1+8/2/12)*B43</f>
         <v>0.40639999999999998</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L23">
         <v>0.49112</v>
       </c>
       <c r="M23" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>0.52476</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G24" s="2">
         <f>2*B43</f>
         <v>0.60960000000000003</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="30">
+        <v>167</v>
+      </c>
+      <c r="L24" s="28">
         <f>L21*L22*L23/(L9*L10)</f>
         <v>1.6874565909435213E-3</v>
       </c>
       <c r="M24" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="30">
+        <v>139</v>
+      </c>
+      <c r="B25" s="28">
         <f>B23*B24/(B9*B8)</f>
         <v>5.5597940752293441E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
       <c r="F26" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="37">
+        <v>240</v>
+      </c>
+      <c r="G26" s="35">
         <f>B6*B7*B39*'Green Water Treatment Illinois'!O3</f>
         <v>428.64443999999997</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L26">
         <f>L5*(3/12*B43)</f>
         <v>308.37073200000003</v>
       </c>
       <c r="M26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B27">
         <f>B3*B4</f>
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G27">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L27">
         <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>1</v>
@@ -11329,109 +11149,109 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>8.3668099999999992</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L28">
         <v>0.10059999999999999</v>
       </c>
       <c r="M28" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>4.75</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G29" s="22">
         <f>G24*G23*G22</f>
         <v>111.44042250223328</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="35">
+        <v>138</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="33">
         <f>L26*L27*L28/(L9*L10)</f>
         <v>0.10421648702698211</v>
       </c>
-      <c r="M29" s="34" t="s">
-        <v>138</v>
+      <c r="M29" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="30">
+        <v>141</v>
+      </c>
+      <c r="B30" s="28">
         <f>B29/16*B27*(1+B10)*B39*B28/(B8*B9)</f>
         <v>5.2043550297619048E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G30">
         <v>0.52476</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="30">
+        <v>139</v>
+      </c>
+      <c r="G31" s="28">
         <f>G29*G30/(G26*G27)</f>
         <v>9.0952579271018404E-3</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L31">
         <f>AVERAGE(212.5,212.5,287.5)</f>
         <v>237.5</v>
       </c>
       <c r="M31" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>1</v>
@@ -11439,154 +11259,154 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="30">
+        <v>168</v>
+      </c>
+      <c r="B32" s="28">
         <f>G48/(B8*B9)</f>
         <v>6.7062479398821012E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L32">
         <f>AVERAGE(132802,194007,358472)</f>
         <v>228427</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G33" s="22">
         <f>G22</f>
         <v>449.8255217303705</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L33">
         <f>L31*(L7+L5)</f>
         <v>2883387.75</v>
       </c>
       <c r="M33" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G34" s="22">
         <f>1.54*B44</f>
         <v>2.2917663999999998</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L34">
         <f>L33/L32</f>
         <v>12.622797436380113</v>
       </c>
       <c r="M34" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G35">
         <v>0.49112</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L35">
         <v>1.66568</v>
       </c>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="30">
+        <v>167</v>
+      </c>
+      <c r="G36" s="28">
         <f>G33*G34*G35/(G26*G27)</f>
         <v>7.8743299152552793E-2</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="35">
+        <v>207</v>
+      </c>
+      <c r="L36" s="33">
         <f>L35*L34/(L9*L10)</f>
         <v>2.2073057929372264E-3</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="48"/>
+      <c r="A37" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="46"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2">
         <v>0.76455499999999998</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="30">
+        <v>168</v>
+      </c>
+      <c r="G38" s="28">
         <f>G48/(G26*G27)</f>
         <v>1.2418977666448333E-2</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2">
         <v>0.453592</v>
@@ -11596,318 +11416,318 @@
         <v>9.5254320000000003</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2">
         <v>1000</v>
       </c>
-      <c r="G40" s="39" t="s">
-        <v>179</v>
+      <c r="G40" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B41" s="2">
         <v>2.7777799999999998E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G41" s="2">
         <f>9*B43</f>
         <v>2.7432000000000003</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L41">
         <v>50</v>
       </c>
       <c r="M41" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2">
         <v>4046.86</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G42" s="2">
         <f>12/12*B43</f>
         <v>0.30480000000000002</v>
       </c>
       <c r="H42" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L42">
         <v>4.7</v>
       </c>
       <c r="M42" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B43" s="2">
         <v>0.30480000000000002</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G43" s="2">
         <f>(11+5/8)/12*B43</f>
         <v>0.29527500000000001</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
         <v>223</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B44" s="2">
         <v>1.4881599999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G44" s="2">
         <f>0.5/12*B43</f>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L44">
         <v>0.8</v>
       </c>
       <c r="M44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="38">
+        <v>224</v>
+      </c>
+      <c r="B45" s="36">
         <v>1E-4</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G45" s="22">
         <f>(3*(G41*G43)+2*(G42*G43)+2*(G43*G41))*G44</f>
         <v>5.3720892558E-2</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K45" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L45">
         <v>0.8</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B46" s="2">
         <f>44/12</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G46">
         <v>1380</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L46">
         <v>2.2400000000000002</v>
       </c>
       <c r="M46" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B47">
         <v>0.40468599999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G47">
         <v>1.0770900000000001</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K47" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="33">
+        <v>173</v>
+      </c>
+      <c r="G48" s="31">
         <f>G47*G46*G45</f>
         <v>79.849885908108789</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L48">
         <f>L42-L45</f>
         <v>3.9000000000000004</v>
       </c>
       <c r="M48" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L49">
         <f t="shared" ref="L49" si="0">L43-L46</f>
         <v>-2.2400000000000002</v>
       </c>
       <c r="M49" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L50">
         <f>(L44-L47)*L41</f>
         <v>-9.9999999999999982</v>
       </c>
       <c r="M50" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L51">
         <f>SUM(L48:L50)</f>
         <v>-8.3399999999999981</v>
       </c>
       <c r="M51" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L52" s="2">
         <f>(L5+L7)*B45</f>
         <v>1.2140580000000001</v>
       </c>
       <c r="M52" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
-        <v>238</v>
-      </c>
-      <c r="L53" s="35">
+        <v>227</v>
+      </c>
+      <c r="L53" s="33">
         <f>L51*L52*B46*1000/(L9*L10)</f>
         <v>-3.8975548447566473</v>
       </c>
       <c r="M53" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -11969,139 +11789,139 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B1">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>1.6</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="F2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="30">
         <f>G3*G4*B10/G5</f>
         <v>8.1035479307827316</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="32">
+      <c r="K2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="30">
         <f>L14+L16+L24+L29+L36+L53</f>
         <v>-12.998043436506677</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="37">
+        <v>267</v>
+      </c>
+      <c r="B3" s="35">
         <f>B2/B18*B1</f>
         <v>32.374901357722429</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>0.24787999999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L3">
         <f>12/12*B14</f>
         <v>0.30480000000000002</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>700</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="29">
+        <v>183</v>
+      </c>
+      <c r="L4" s="27">
         <v>0.02</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" s="37">
+        <v>268</v>
+      </c>
+      <c r="G5" s="35">
         <f>B3*'Green Water Treatment Illinois'!P8</f>
         <v>9.7124704073167276</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L5">
         <f>L4*$B$1*$B$13</f>
         <v>4046.86</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -12110,233 +11930,233 @@
         <v>0.6474980271544486</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L6" s="18">
         <f>2*L4</f>
         <v>0.04</v>
       </c>
       <c r="N6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L7">
         <f>L6*$B$1*$B$13</f>
         <v>8093.72</v>
       </c>
       <c r="M7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="F8" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="40" t="e">
+      <c r="A8" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="F8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="38" t="e">
         <f>G11*(G10-G9)/G12</f>
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2">
         <v>0.76455499999999998</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="26"/>
       <c r="K9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="37">
+        <v>268</v>
+      </c>
+      <c r="L9" s="35">
         <f>B3/'Green Water Treatment Illinois'!O4*'Green Water Treatment Illinois'!O5</f>
         <v>64.749802715444858</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2">
         <v>0.453592</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>266</v>
+      <c r="G10" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L10">
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2">
         <v>1000</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="F11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="30">
         <f>G12*B1/B18/G13</f>
         <v>-91.350687499999992</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2">
         <v>2.7777799999999998E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="28">
+        <v>265</v>
+      </c>
+      <c r="G12" s="26">
         <f>-73.08055</f>
         <v>-73.080550000000002</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L12" s="22">
         <f>(L7+L5)*L3</f>
         <v>3700.4487840000002</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2">
         <v>4046.86</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="37">
+        <v>268</v>
+      </c>
+      <c r="G13" s="35">
         <f>B3*'Green Water Treatment Illinois'!P9</f>
         <v>16.187450678861214</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L13">
         <v>0.52476</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2">
         <v>0.30480000000000002</v>
       </c>
       <c r="E14" s="3"/>
       <c r="K14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="30">
+        <v>139</v>
+      </c>
+      <c r="L14" s="28">
         <f>L12*L13/(L9*L10)</f>
         <v>0.74975035538936419</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2">
         <v>1.4881599999999999</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="38">
+        <v>224</v>
+      </c>
+      <c r="B16" s="36">
         <v>1E-4</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="32">
+      <c r="F16" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="30">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="30">
+        <v>168</v>
+      </c>
+      <c r="L16" s="28">
         <f>G47/(L9*L10)</f>
         <v>3.0830165714567533E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2">
         <f>44/12</f>
@@ -12345,114 +12165,114 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B18">
         <v>2.47105</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>102</v>
+      <c r="G18" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F19" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="32">
+      <c r="F19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="30">
         <f>G30+G35+G37</f>
         <v>2.6548241406006943</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" s="6"/>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L19" s="2">
         <f>SQRT(L5*L18)</f>
         <v>89.965104346074099</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L20" s="2">
         <f>L19/L18</f>
         <v>44.98255217303705</v>
       </c>
       <c r="M20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G21" s="2">
         <f>SQRT(G20*B13)</f>
         <v>449.8255217303705</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L21" s="22">
         <f>2*L19+2*L20</f>
         <v>269.8953130382223</v>
       </c>
       <c r="M21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G22" s="2">
         <f>(1+8/2/12)*B14</f>
         <v>0.40639999999999998</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L22" s="22">
         <f>1.54*G35</f>
         <v>3.2110943334725506</v>
       </c>
       <c r="M22" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>1</v>
@@ -12460,86 +12280,86 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G23" s="2">
         <f>2*B14</f>
         <v>0.60960000000000003</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L23">
         <v>0.49112</v>
       </c>
       <c r="M23" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="30">
+        <v>167</v>
+      </c>
+      <c r="L24" s="28">
         <f>L21*L22*L23/(L9*L10)</f>
         <v>0.16433784453318487</v>
       </c>
       <c r="M24" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>270</v>
-      </c>
-      <c r="G25" s="37">
+        <v>268</v>
+      </c>
+      <c r="G25" s="35">
         <f>B3*'Green Water Treatment Illinois'!P3</f>
         <v>16.187450678861214</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G26">
         <f>'Green Emissions - N'!G27</f>
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L26">
         <f>L5*(3/12*B14)</f>
         <v>308.37073200000003</v>
       </c>
       <c r="M26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L27">
         <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>1</v>
@@ -12547,75 +12367,75 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G28" s="22">
         <f>G23*G22*G21</f>
         <v>111.44042250223328</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L28">
         <v>0.10059999999999999</v>
       </c>
       <c r="M28" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>0.52476</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="35">
+        <v>117</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="33">
         <f>L26*L27*L28/(L9*L10)</f>
         <v>0.38328574714622582</v>
       </c>
-      <c r="M29" s="34" t="s">
-        <v>138</v>
+      <c r="M29" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="30">
+        <v>139</v>
+      </c>
+      <c r="G30" s="28">
         <f>G28*G29/(G25*G26)</f>
         <v>0.24084284907871589</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L31">
         <f>AVERAGE(212.5,212.5,287.5)</f>
         <v>237.5</v>
       </c>
       <c r="M31" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>1</v>
@@ -12623,396 +12443,396 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G32" s="22">
         <f>G21</f>
         <v>449.8255217303705</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L32">
         <f>AVERAGE(132802,194007,358472)</f>
         <v>228427</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G33" s="22">
         <f>1.54*B15</f>
         <v>2.2917663999999998</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L33">
         <f>L31*(L7+L5)</f>
         <v>2883387.75</v>
       </c>
       <c r="M33" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G34">
         <v>0.49112</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L34">
         <f>L33/L32</f>
         <v>12.622797436380113</v>
       </c>
       <c r="M34" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="30">
+        <v>167</v>
+      </c>
+      <c r="G35" s="28">
         <f>G32*G33*G34/(G25*G26)</f>
         <v>2.0851261905665912</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L35">
         <v>1.66568</v>
       </c>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="35">
+        <v>207</v>
+      </c>
+      <c r="L36" s="33">
         <f>L35*L34/(L9*L10)</f>
         <v>8.1179943227897965E-3</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="30">
+        <v>168</v>
+      </c>
+      <c r="G37" s="28">
         <f>G47/(G25*G26)</f>
         <v>0.328855100955387</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.2">
       <c r="K38" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="G39" s="39" t="s">
-        <v>179</v>
+      <c r="G39" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G40" s="2">
         <f>9*B14</f>
         <v>2.7432000000000003</v>
       </c>
       <c r="H40" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G41" s="2">
         <f>12/12*B14</f>
         <v>0.30480000000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L41">
         <v>50</v>
       </c>
       <c r="M41" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2">
         <f>(11+5/8)/12*B14</f>
         <v>0.29527500000000001</v>
       </c>
       <c r="H42" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L42">
         <v>4.7</v>
       </c>
       <c r="M42" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G43" s="2">
         <f>0.5/12*B14</f>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
         <v>223</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G44" s="22">
         <f>(3*(G40*G42)+2*(G41*G42)+2*(G42*G40))*G43</f>
         <v>5.3720892558E-2</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L44">
         <v>0.8</v>
       </c>
       <c r="M44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G45">
         <v>1380</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L45">
         <v>0.8</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G46">
         <v>1.0770900000000001</v>
       </c>
       <c r="H46" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L46">
         <v>2.2400000000000002</v>
       </c>
       <c r="M46" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="33">
+        <v>173</v>
+      </c>
+      <c r="G47" s="31">
         <f>G46*G45*G44</f>
         <v>79.849885908108789</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K47" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="6:14" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L48">
         <f>L42-L45</f>
         <v>3.9000000000000004</v>
       </c>
       <c r="M48" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L49">
         <f t="shared" ref="L49" si="0">L43-L46</f>
         <v>-2.2400000000000002</v>
       </c>
       <c r="M49" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L50">
         <f>(L44-L47)*L41</f>
         <v>-9.9999999999999982</v>
       </c>
       <c r="M50" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L51">
         <f>SUM(L48:L50)</f>
         <v>-8.3399999999999981</v>
       </c>
       <c r="M51" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L52" s="2">
         <f>(L5+L7)*B16</f>
         <v>1.2140580000000001</v>
       </c>
       <c r="M52" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
-        <v>238</v>
-      </c>
-      <c r="L53" s="35">
+        <v>227</v>
+      </c>
+      <c r="L53" s="33">
         <f>L51*L52*B17*1000/(L9*L10)</f>
         <v>-14.33436554361281</v>
       </c>
       <c r="M53" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -13038,936 +12858,221 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6960C420-AB2B-1846-A606-837F5DD62626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4732D04-DD33-4849-8B1A-9B699746D7EA}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.14999847407452621"/>
+    <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="R1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="34">
+        <v>30600000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34">
+        <f>B2*21</f>
+        <v>642600000</v>
+      </c>
+      <c r="G2" s="2">
+        <f>B2*0.00404686</f>
+        <v>123833.91600000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="34">
+        <v>973000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="41">
+        <f>B3/$B$2</f>
+        <v>3.1797385620915032E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G9" si="0">B3*0.00404686</f>
+        <v>3937.5947800000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="34">
+        <v>5700000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="23">
+        <f>B4/$B$2</f>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>23067.102000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="34">
+        <v>8200000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="23">
+        <f>B5/$B$2</f>
+        <v>0.26797385620915032</v>
+      </c>
+      <c r="E5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>33184.252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="41">
+        <f t="shared" ref="D6:D7" si="1">B6/$B$2</f>
+        <v>6.5359477124183013E-5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0937200000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="1"/>
+        <v>6.5359477124183013E-5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0937200000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="B8" s="34">
+        <v>107000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="41">
+        <f t="shared" ref="D8:D9" si="2">B8/$B$2</f>
+        <v>3.4967320261437909E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>433.01402000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>259</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="B9" s="34">
+        <v>174000</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3*'Dollar Conversion'!$Q$4</f>
-        <v>0.79117329007839954</v>
-      </c>
-      <c r="G3" s="1">
-        <f>F3/(M3/1000)</f>
-        <v>81.564256709113366</v>
-      </c>
-      <c r="H3" s="1">
-        <f>F3/(N3/1000)</f>
-        <v>13186.22150130666</v>
-      </c>
-      <c r="I3" s="2">
-        <f>K3/(M3/1000)</f>
-        <v>53.608247422680421</v>
-      </c>
-      <c r="J3" s="2">
-        <f>K3/(N3/1000)</f>
-        <v>8666.6666666666679</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="M3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="N3">
-        <v>0.06</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S3" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" t="s">
-        <v>249</v>
-      </c>
-      <c r="U3" t="s">
-        <v>249</v>
-      </c>
-      <c r="V3" t="s">
-        <v>249</v>
-      </c>
-      <c r="W3" t="s">
-        <v>249</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="1">
-        <f>E4*'Dollar Conversion'!$Q$4</f>
-        <v>0.91479411665314947</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G11" si="0">F4/(M4/1000)</f>
-        <v>28.58731614541092</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H11" si="1">F4/(N4/1000)</f>
-        <v>194.63704609641476</v>
-      </c>
-      <c r="I4" s="2">
-        <f>K4/(M4/1000)</f>
-        <v>24.0625</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J10" si="2">K4/(N4/1000)</f>
-        <v>163.82978723404256</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M4">
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <v>4.7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="P4">
-        <v>0.1</v>
-      </c>
-      <c r="Q4">
-        <v>0.02</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S4" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" t="s">
-        <v>249</v>
-      </c>
-      <c r="U4" t="s">
-        <v>249</v>
-      </c>
-      <c r="V4" t="s">
-        <v>249</v>
-      </c>
-      <c r="W4" t="s">
-        <v>249</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="1">
-        <f>E5*'Dollar Conversion'!$Q$4</f>
-        <v>1.4834499188969992</v>
-      </c>
-      <c r="G5" s="1">
-        <f>F5/(M5/1000)</f>
-        <v>46.357809965531224</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>370.86247972424979</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I11" si="3">K5/(M5/1000)</f>
-        <v>28.75</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="D9" s="41">
         <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="M5">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="P5">
-        <v>0.13</v>
-      </c>
-      <c r="Q5">
-        <v>0.02</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S5" t="s">
-        <v>249</v>
-      </c>
-      <c r="T5" t="s">
-        <v>249</v>
-      </c>
-      <c r="U5" t="s">
-        <v>249</v>
-      </c>
-      <c r="V5" t="s">
-        <v>249</v>
-      </c>
-      <c r="W5" t="s">
-        <v>249</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F6" s="1">
-        <f>E6*'Dollar Conversion'!$Q$4</f>
-        <v>1.0384149432278993</v>
-      </c>
-      <c r="G6" s="1">
+        <v>5.6862745098039211E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>30.541615977291155</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>216.33644650581238</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>29.411764705882351</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>208.33333333333334</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="M6">
-        <v>34</v>
-      </c>
-      <c r="N6">
-        <v>4.8</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="P6">
-        <v>0.11</v>
-      </c>
-      <c r="Q6">
-        <v>0.02</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S6" t="s">
-        <v>249</v>
-      </c>
-      <c r="T6" t="s">
-        <v>249</v>
-      </c>
-      <c r="U6" t="s">
-        <v>249</v>
-      </c>
-      <c r="V6" t="s">
-        <v>249</v>
-      </c>
-      <c r="W6" t="s">
-        <v>249</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="F7" s="1">
-        <f>E7*'Dollar Conversion'!$Q$4</f>
-        <v>1.0631391085428494</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>31.268797310083805</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>221.48731427976031</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>28.235294117647054</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="M7">
-        <v>34</v>
-      </c>
-      <c r="N7">
-        <v>4.8</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P7">
-        <v>0.12</v>
-      </c>
-      <c r="Q7">
-        <v>0.02</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T7" t="s">
-        <v>249</v>
-      </c>
-      <c r="U7" t="s">
-        <v>249</v>
-      </c>
-      <c r="V7" t="s">
-        <v>249</v>
-      </c>
-      <c r="W7" t="s">
-        <v>249</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F8" s="1">
-        <f>E8*'Dollar Conversion'!$Q$4</f>
-        <v>1.1620357698026493</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>31.406372156828361</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>237.15015710258146</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>29.729729729729733</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>224.48979591836732</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="M8">
-        <v>37</v>
-      </c>
-      <c r="N8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="P8">
-        <v>0.13</v>
-      </c>
-      <c r="Q8">
-        <v>0.02</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S8" t="s">
-        <v>249</v>
-      </c>
-      <c r="T8" t="s">
-        <v>249</v>
-      </c>
-      <c r="U8" t="s">
-        <v>249</v>
-      </c>
-      <c r="V8" t="s">
-        <v>249</v>
-      </c>
-      <c r="W8" t="s">
-        <v>249</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9*'Dollar Conversion'!$Q$4</f>
-        <v>1.1002253565152744</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>29.735820446358769</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>224.53578704393351</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>29.729729729729733</v>
-      </c>
-      <c r="J9" s="2">
-        <f>K9/(N9/1000)</f>
-        <v>224.48979591836732</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="M9">
-        <v>37</v>
-      </c>
-      <c r="N9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="P9">
-        <v>0.13</v>
-      </c>
-      <c r="Q9">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S9" t="s">
-        <v>249</v>
-      </c>
-      <c r="T9" t="s">
-        <v>249</v>
-      </c>
-      <c r="U9" t="s">
-        <v>249</v>
-      </c>
-      <c r="V9" t="s">
-        <v>249</v>
-      </c>
-      <c r="W9" t="s">
-        <v>249</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="1">
-        <f>E10*'Dollar Conversion'!$Q$4</f>
-        <v>1.730691572046499</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>44.376706975551258</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>346.13831440929982</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P10">
-        <v>0.3</v>
-      </c>
-      <c r="Q10">
-        <v>0.04</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S10" t="s">
-        <v>249</v>
-      </c>
-      <c r="T10" t="s">
-        <v>249</v>
-      </c>
-      <c r="U10" t="s">
-        <v>249</v>
-      </c>
-      <c r="V10" t="s">
-        <v>249</v>
-      </c>
-      <c r="W10" t="s">
-        <v>249</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F11" s="1">
-        <f>E11*'Dollar Conversion'!$Q$4</f>
-        <v>1.6070707454717492</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>42.291335407151294</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>321.41414909434985</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>47.368421052631582</v>
-      </c>
-      <c r="J11" s="2">
-        <f>K11/(N11/1000)</f>
-        <v>360</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M11">
-        <v>38</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="P11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>0.04</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S11" t="s">
-        <v>249</v>
-      </c>
-      <c r="T11" t="s">
-        <v>249</v>
-      </c>
-      <c r="U11" t="s">
-        <v>249</v>
-      </c>
-      <c r="V11" t="s">
-        <v>249</v>
-      </c>
-      <c r="W11" t="s">
-        <v>249</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E28" s="36"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="36"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="46"/>
+        <v>704.15364</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="X3" r:id="rId1" display="EPA LCA" xr:uid="{5DC50702-C3AA-704E-A374-FE13418AEBDB}"/>
-    <hyperlink ref="X4" r:id="rId2" display="EPA LCA" xr:uid="{11CD774F-74CA-0C40-BA52-CE7A8F128513}"/>
-    <hyperlink ref="X5" r:id="rId3" display="EPA LCA" xr:uid="{8CB331D2-74E1-9F46-B7FC-1CF2645CD297}"/>
-    <hyperlink ref="X6" r:id="rId4" display="EPA LCA" xr:uid="{A43BE32D-28B8-2C4B-9B3B-C9DFAB145500}"/>
-    <hyperlink ref="X7" r:id="rId5" display="EPA LCA" xr:uid="{651ABD76-BBC7-D140-A691-986B2B8833B3}"/>
-    <hyperlink ref="X8" r:id="rId6" display="EPA LCA" xr:uid="{ED14D076-A258-4844-B4A4-4E980A790F43}"/>
-    <hyperlink ref="X9" r:id="rId7" display="EPA LCA" xr:uid="{230BA9A7-BA1E-C24D-BC90-5BFF3A18D989}"/>
-    <hyperlink ref="X10" r:id="rId8" display="EPA LCA" xr:uid="{EDABB9B8-470E-6D4A-9934-4E004DEB26FE}"/>
-    <hyperlink ref="X11" r:id="rId9" display="EPA LCA" xr:uid="{7F3CECE1-D725-B848-B326-6638EB66710A}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{836DA738-B1C2-944B-A500-747E2F7D8B7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
